--- a/biology/Zoologie/Hoplophryne/Hoplophryne.xlsx
+++ b/biology/Zoologie/Hoplophryne/Hoplophryne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hoplophryne est un genre d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoplophryne est un genre d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre regroupe deux espèces endémiques de Tanzanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre regroupe deux espèces endémiques de Tanzanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 novembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 novembre 2013) :
 Hoplophryne rogersi Barbour &amp; Loveridge, 1928
 Hoplophryne uluguruensis Barbour &amp; Loveridge, 1928</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbour &amp; Loveridge, 1928 : A comparative Study of the Herpetological Faunae of the Uluguru adn Usambara Mountains, Tanganyika Territory with Descriptions of new Species. Memoirs of the Museum of Comparative Zoӧlogy, vol. 50, no 2, p. 1-265 (texte intégral).</t>
         </is>
